--- a/database/industries/lastic/pekerman/product/quarterly.xlsx
+++ b/database/industries/lastic/pekerman/product/quarterly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\lastic\pekerman\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD795AA-6D5B-4E70-8AA9-B8D90B2374CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="5550"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="34">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>پکرمان-گروه‌ صنعتی‌ بارز</t>
@@ -36,9 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -51,6 +49,9 @@
     <t>فصل دوم منتهی به 1401/06</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>تایر</t>
   </si>
   <si>
@@ -112,6 +113,9 @@
   </si>
   <si>
     <t>ریال / ریال</t>
+  </si>
+  <si>
+    <t>/ ریال</t>
   </si>
   <si>
     <t>مبلغ بهای تمام شده</t>
@@ -123,7 +127,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -293,7 +297,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -305,7 +309,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -352,6 +356,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -387,6 +408,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -538,17 +576,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -558,7 +596,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -570,7 +608,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -582,7 +620,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -592,7 +630,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -604,7 +642,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -616,7 +654,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -626,7 +664,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -648,7 +686,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -658,7 +696,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -682,7 +720,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>13</v>
       </c>
@@ -691,22 +729,22 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>814845</v>
+        <v>405389</v>
       </c>
       <c r="F11" s="11">
-        <v>405389</v>
+        <v>332983</v>
       </c>
       <c r="G11" s="11">
-        <v>332983</v>
+        <v>215496</v>
       </c>
       <c r="H11" s="11">
-        <v>215496</v>
+        <v>308284</v>
       </c>
       <c r="I11" s="11">
-        <v>308284</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>378848</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>15</v>
       </c>
@@ -715,22 +753,22 @@
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>1524935</v>
+        <v>792191</v>
       </c>
       <c r="F12" s="9">
-        <v>792191</v>
+        <v>767213</v>
       </c>
       <c r="G12" s="9">
-        <v>767213</v>
+        <v>474327</v>
       </c>
       <c r="H12" s="9">
-        <v>474327</v>
+        <v>638977</v>
       </c>
       <c r="I12" s="9">
-        <v>638977</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>687708</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>16</v>
       </c>
@@ -752,7 +790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>17</v>
       </c>
@@ -761,22 +799,22 @@
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
-        <v>14949886</v>
+        <v>7993924</v>
       </c>
       <c r="F14" s="9">
-        <v>7993924</v>
+        <v>7426956</v>
       </c>
       <c r="G14" s="9">
-        <v>7426956</v>
+        <v>6720096</v>
       </c>
       <c r="H14" s="9">
-        <v>6720096</v>
+        <v>6938588</v>
       </c>
       <c r="I14" s="9">
-        <v>6938588</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7152534</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>18</v>
       </c>
@@ -785,22 +823,22 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>25610701</v>
+        <v>15032849</v>
       </c>
       <c r="F15" s="11">
-        <v>15032849</v>
+        <v>14047821</v>
       </c>
       <c r="G15" s="11">
-        <v>14047821</v>
+        <v>14254284</v>
       </c>
       <c r="H15" s="11">
-        <v>14254284</v>
+        <v>14892845</v>
       </c>
       <c r="I15" s="11">
-        <v>14892845</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13983329</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>19</v>
       </c>
@@ -824,29 +862,29 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13">
-        <v>42900367</v>
+        <v>24224353</v>
       </c>
       <c r="F17" s="13">
-        <v>24224353</v>
+        <v>22574973</v>
       </c>
       <c r="G17" s="13">
-        <v>22574973</v>
+        <v>21664203</v>
       </c>
       <c r="H17" s="13">
-        <v>21664203</v>
+        <v>22778694</v>
       </c>
       <c r="I17" s="13">
-        <v>22778694</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+        <v>22202419</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -856,7 +894,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -866,7 +904,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -876,7 +914,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B21" s="7" t="s">
         <v>21</v>
       </c>
@@ -898,7 +936,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -908,7 +946,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
         <v>10</v>
       </c>
@@ -932,7 +970,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="10" t="s">
         <v>13</v>
       </c>
@@ -947,27 +985,27 @@
         <v>12</v>
       </c>
       <c r="G24" s="11">
-        <v>342299</v>
+        <v>284127</v>
       </c>
       <c r="H24" s="11">
-        <v>284127</v>
+        <v>341622</v>
       </c>
       <c r="I24" s="11">
-        <v>341622</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+        <v>366270</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9">
-        <v>423499</v>
-      </c>
-      <c r="F25" s="9">
         <v>452478</v>
       </c>
+      <c r="F25" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="G25" s="9" t="s">
         <v>12</v>
       </c>
@@ -978,7 +1016,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>22</v>
       </c>
@@ -1002,7 +1040,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
         <v>15</v>
       </c>
@@ -1017,27 +1055,27 @@
         <v>12</v>
       </c>
       <c r="G27" s="9">
-        <v>652860</v>
+        <v>629726</v>
       </c>
       <c r="H27" s="9">
-        <v>629726</v>
+        <v>737600</v>
       </c>
       <c r="I27" s="9">
-        <v>737600</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+        <v>683501</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
       <c r="E28" s="11">
-        <v>774368</v>
-      </c>
-      <c r="F28" s="11">
         <v>642542</v>
       </c>
+      <c r="F28" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="G28" s="11" t="s">
         <v>12</v>
       </c>
@@ -1048,7 +1086,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>16</v>
       </c>
@@ -1057,8 +1095,8 @@
       <c r="E29" s="9">
         <v>0</v>
       </c>
-      <c r="F29" s="9">
-        <v>0</v>
+      <c r="F29" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="G29" s="9">
         <v>0</v>
@@ -1070,7 +1108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>17</v>
       </c>
@@ -1079,22 +1117,22 @@
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
-        <v>8686935</v>
-      </c>
-      <c r="F30" s="11">
         <v>6703593</v>
       </c>
+      <c r="F30" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="G30" s="11">
-        <v>6281522</v>
+        <v>7900221</v>
       </c>
       <c r="H30" s="11">
-        <v>7900221</v>
+        <v>8048604</v>
       </c>
       <c r="I30" s="11">
-        <v>8048604</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7019965</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>18</v>
       </c>
@@ -1103,44 +1141,44 @@
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9">
-        <v>14246224</v>
-      </c>
-      <c r="F31" s="9">
         <v>14893295</v>
       </c>
+      <c r="F31" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="G31" s="9">
-        <v>13722131</v>
+        <v>13113469</v>
       </c>
       <c r="H31" s="9">
-        <v>13113469</v>
+        <v>15468322</v>
       </c>
       <c r="I31" s="9">
-        <v>15468322</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+        <v>14236283</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
       <c r="E32" s="13">
-        <v>24131026</v>
+        <v>22691908</v>
       </c>
       <c r="F32" s="13">
-        <v>22691908</v>
+        <v>0</v>
       </c>
       <c r="G32" s="13">
-        <v>20998812</v>
+        <v>21927543</v>
       </c>
       <c r="H32" s="13">
-        <v>21927543</v>
+        <v>24596148</v>
       </c>
       <c r="I32" s="13">
-        <v>24596148</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+        <v>22306019</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1150,7 +1188,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1160,7 +1198,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1170,7 +1208,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B36" s="7" t="s">
         <v>24</v>
       </c>
@@ -1192,7 +1230,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1202,7 +1240,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
         <v>10</v>
       </c>
@@ -1226,7 +1264,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>13</v>
       </c>
@@ -1235,22 +1273,22 @@
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11">
-        <v>122971</v>
-      </c>
-      <c r="F39" s="11">
         <v>132163</v>
       </c>
+      <c r="F39" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="G39" s="11">
-        <v>109133</v>
+        <v>117806</v>
       </c>
       <c r="H39" s="11">
-        <v>117806</v>
+        <v>160400</v>
       </c>
       <c r="I39" s="11">
-        <v>160400</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+        <v>212038</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>22</v>
       </c>
@@ -1274,7 +1312,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>15</v>
       </c>
@@ -1283,22 +1321,22 @@
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11">
-        <v>439876</v>
-      </c>
-      <c r="F41" s="11">
         <v>370104</v>
       </c>
+      <c r="F41" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="G41" s="11">
-        <v>443755</v>
+        <v>461275</v>
       </c>
       <c r="H41" s="11">
-        <v>461275</v>
+        <v>607717</v>
       </c>
       <c r="I41" s="11">
-        <v>607717</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+        <v>748711</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>16</v>
       </c>
@@ -1309,8 +1347,8 @@
       <c r="E42" s="9">
         <v>0</v>
       </c>
-      <c r="F42" s="9">
-        <v>0</v>
+      <c r="F42" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="G42" s="9">
         <v>0</v>
@@ -1322,7 +1360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>17</v>
       </c>
@@ -1331,22 +1369,22 @@
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11">
-        <v>4767502</v>
-      </c>
-      <c r="F43" s="11">
         <v>3769844</v>
       </c>
+      <c r="F43" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="G43" s="11">
-        <v>3923712</v>
+        <v>5044081</v>
       </c>
       <c r="H43" s="11">
-        <v>5044081</v>
+        <v>5911040</v>
       </c>
       <c r="I43" s="11">
-        <v>5911040</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5700880</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>26</v>
       </c>
@@ -1370,7 +1408,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>18</v>
       </c>
@@ -1379,44 +1417,44 @@
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11">
-        <v>7725946</v>
-      </c>
-      <c r="F45" s="11">
         <v>8276645</v>
       </c>
+      <c r="F45" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="G45" s="11">
-        <v>8146114</v>
+        <v>8580641</v>
       </c>
       <c r="H45" s="11">
-        <v>8580641</v>
+        <v>11942917</v>
       </c>
       <c r="I45" s="11">
-        <v>11942917</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+        <v>11453935</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="14" t="s">
         <v>20</v>
       </c>
       <c r="C46" s="15"/>
       <c r="D46" s="15"/>
       <c r="E46" s="15">
-        <v>13056295</v>
+        <v>12548756</v>
       </c>
       <c r="F46" s="15">
-        <v>12548756</v>
+        <v>0</v>
       </c>
       <c r="G46" s="15">
-        <v>12622714</v>
+        <v>14203803</v>
       </c>
       <c r="H46" s="15">
-        <v>14203803</v>
+        <v>18622074</v>
       </c>
       <c r="I46" s="15">
-        <v>18622074</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+        <v>18115564</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1426,7 +1464,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1436,7 +1474,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1446,7 +1484,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B50" s="7" t="s">
         <v>27</v>
       </c>
@@ -1468,7 +1506,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1478,7 +1516,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
         <v>10</v>
       </c>
@@ -1502,7 +1540,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
         <v>13</v>
       </c>
@@ -1511,22 +1549,22 @@
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11">
-        <v>290368</v>
+        <v>292083</v>
       </c>
       <c r="F53" s="11">
-        <v>292083</v>
+        <v>318824</v>
       </c>
       <c r="G53" s="11">
-        <v>318824</v>
+        <v>414624</v>
       </c>
       <c r="H53" s="11">
-        <v>414624</v>
+        <v>469525</v>
       </c>
       <c r="I53" s="11">
-        <v>469525</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+        <v>578912</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>22</v>
       </c>
@@ -1550,7 +1588,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>15</v>
       </c>
@@ -1559,27 +1597,27 @@
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11">
-        <v>568045</v>
+        <v>576001</v>
       </c>
       <c r="F55" s="11">
-        <v>576001</v>
+        <v>679709</v>
       </c>
       <c r="G55" s="11">
-        <v>679709</v>
+        <v>732501</v>
       </c>
       <c r="H55" s="11">
-        <v>732501</v>
+        <v>823911</v>
       </c>
       <c r="I55" s="11">
-        <v>823911</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1095406</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="9" t="s">
@@ -1598,7 +1636,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>17</v>
       </c>
@@ -1607,22 +1645,22 @@
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11">
-        <v>548813</v>
+        <v>562362</v>
       </c>
       <c r="F57" s="11">
-        <v>562362</v>
+        <v>624644</v>
       </c>
       <c r="G57" s="11">
-        <v>624644</v>
+        <v>638473</v>
       </c>
       <c r="H57" s="11">
-        <v>638473</v>
+        <v>734418</v>
       </c>
       <c r="I57" s="11">
-        <v>734418</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+        <v>812095</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
         <v>18</v>
       </c>
@@ -1631,22 +1669,22 @@
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="9">
-        <v>542315</v>
+        <v>555730</v>
       </c>
       <c r="F58" s="9">
-        <v>555730</v>
+        <v>593648</v>
       </c>
       <c r="G58" s="9">
-        <v>593648</v>
+        <v>654338</v>
       </c>
       <c r="H58" s="9">
-        <v>654338</v>
+        <v>772089</v>
       </c>
       <c r="I58" s="9">
-        <v>772089</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+        <v>804559</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1656,7 +1694,7 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1666,7 +1704,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1676,9 +1714,9 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B62" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
@@ -1698,7 +1736,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1708,7 +1746,7 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>13</v>
       </c>
@@ -1717,22 +1755,22 @@
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="9">
-        <v>-63477</v>
+        <v>-103306</v>
       </c>
       <c r="F64" s="9">
-        <v>-103306</v>
+        <v>-116596</v>
       </c>
       <c r="G64" s="9">
-        <v>-116596</v>
+        <v>-131656</v>
       </c>
       <c r="H64" s="9">
-        <v>-131656</v>
+        <v>-221255</v>
       </c>
       <c r="I64" s="9">
-        <v>-221255</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-64891</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>22</v>
       </c>
@@ -1756,7 +1794,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>15</v>
       </c>
@@ -1765,22 +1803,22 @@
       </c>
       <c r="D66" s="9"/>
       <c r="E66" s="9">
-        <v>-440341</v>
+        <v>-421513</v>
       </c>
       <c r="F66" s="9">
-        <v>-421513</v>
+        <v>-271505</v>
       </c>
       <c r="G66" s="9">
-        <v>-271505</v>
+        <v>-472950</v>
       </c>
       <c r="H66" s="9">
-        <v>-472950</v>
+        <v>-337919</v>
       </c>
       <c r="I66" s="9">
-        <v>-337919</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-770528</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>16</v>
       </c>
@@ -1804,7 +1842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>17</v>
       </c>
@@ -1813,22 +1851,22 @@
       </c>
       <c r="D68" s="9"/>
       <c r="E68" s="9">
-        <v>-5571588</v>
+        <v>-3722076</v>
       </c>
       <c r="F68" s="9">
-        <v>-3722076</v>
+        <v>-3416116</v>
       </c>
       <c r="G68" s="9">
-        <v>-3416116</v>
+        <v>-5041057</v>
       </c>
       <c r="H68" s="9">
-        <v>-5041057</v>
+        <v>-6568253</v>
       </c>
       <c r="I68" s="9">
-        <v>-6568253</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-4507472</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>18</v>
       </c>
@@ -1837,44 +1875,44 @@
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11">
-        <v>-6985026</v>
+        <v>-7771513</v>
       </c>
       <c r="F69" s="11">
-        <v>-7771513</v>
+        <v>-7901292</v>
       </c>
       <c r="G69" s="11">
-        <v>-7901292</v>
+        <v>-9086290</v>
       </c>
       <c r="H69" s="11">
-        <v>-9086290</v>
+        <v>-9779945</v>
       </c>
       <c r="I69" s="11">
-        <v>-9779945</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-8813607</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="14" t="s">
         <v>20</v>
       </c>
       <c r="C70" s="15"/>
       <c r="D70" s="15"/>
       <c r="E70" s="15">
-        <v>-13060432</v>
+        <v>-12018408</v>
       </c>
       <c r="F70" s="15">
-        <v>-12018408</v>
+        <v>-11705509</v>
       </c>
       <c r="G70" s="15">
-        <v>-11705509</v>
+        <v>-14731953</v>
       </c>
       <c r="H70" s="15">
-        <v>-14731953</v>
+        <v>-16907372</v>
       </c>
       <c r="I70" s="15">
-        <v>-16907372</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-14156498</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -1884,7 +1922,7 @@
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -1894,7 +1932,7 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -1904,9 +1942,9 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B74" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
@@ -1926,7 +1964,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -1936,7 +1974,7 @@
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="8" t="s">
         <v>13</v>
       </c>
@@ -1945,22 +1983,22 @@
       </c>
       <c r="D76" s="9"/>
       <c r="E76" s="9">
-        <v>59494</v>
+        <v>28855</v>
       </c>
       <c r="F76" s="9">
-        <v>28855</v>
+        <v>-7463</v>
       </c>
       <c r="G76" s="9">
-        <v>-7463</v>
+        <v>-13850</v>
       </c>
       <c r="H76" s="9">
-        <v>-13850</v>
+        <v>-60855</v>
       </c>
       <c r="I76" s="9">
-        <v>-60855</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+        <v>147147</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="10" t="s">
         <v>22</v>
       </c>
@@ -1984,7 +2022,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="8" t="s">
         <v>15</v>
       </c>
@@ -1993,22 +2031,22 @@
       </c>
       <c r="D78" s="9"/>
       <c r="E78" s="9">
-        <v>-465</v>
+        <v>-51408</v>
       </c>
       <c r="F78" s="9">
-        <v>-51408</v>
+        <v>172250</v>
       </c>
       <c r="G78" s="9">
-        <v>172250</v>
+        <v>-11675</v>
       </c>
       <c r="H78" s="9">
-        <v>-11675</v>
+        <v>269798</v>
       </c>
       <c r="I78" s="9">
-        <v>269798</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-21817</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="10" t="s">
         <v>16</v>
       </c>
@@ -2032,7 +2070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="8" t="s">
         <v>17</v>
       </c>
@@ -2041,22 +2079,22 @@
       </c>
       <c r="D80" s="9"/>
       <c r="E80" s="9">
-        <v>-804086</v>
+        <v>47769</v>
       </c>
       <c r="F80" s="9">
-        <v>47769</v>
+        <v>507596</v>
       </c>
       <c r="G80" s="9">
-        <v>507596</v>
+        <v>3024</v>
       </c>
       <c r="H80" s="9">
-        <v>3024</v>
+        <v>-657213</v>
       </c>
       <c r="I80" s="9">
-        <v>-657213</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1193408</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="10" t="s">
         <v>18</v>
       </c>
@@ -2065,41 +2103,41 @@
       </c>
       <c r="D81" s="11"/>
       <c r="E81" s="11">
-        <v>740920</v>
+        <v>505132</v>
       </c>
       <c r="F81" s="11">
-        <v>505132</v>
+        <v>244822</v>
       </c>
       <c r="G81" s="11">
-        <v>244822</v>
+        <v>-505649</v>
       </c>
       <c r="H81" s="11">
-        <v>-505649</v>
+        <v>2162972</v>
       </c>
       <c r="I81" s="11">
-        <v>2162972</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2640328</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="14" t="s">
         <v>20</v>
       </c>
       <c r="C82" s="15"/>
       <c r="D82" s="15"/>
       <c r="E82" s="15">
-        <v>-4137</v>
+        <v>530348</v>
       </c>
       <c r="F82" s="15">
-        <v>530348</v>
+        <v>917205</v>
       </c>
       <c r="G82" s="15">
-        <v>917205</v>
+        <v>-528150</v>
       </c>
       <c r="H82" s="15">
-        <v>-528150</v>
+        <v>1714702</v>
       </c>
       <c r="I82" s="15">
-        <v>1714702</v>
+        <v>3959066</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/lastic/pekerman/product/quarterly.xlsx
+++ b/database/industries/lastic/pekerman/product/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\lastic\pekerman\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\lastic\pekerman\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD795AA-6D5B-4E70-8AA9-B8D90B2374CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139E276E-7D19-43AB-8202-87B8F8706A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="39">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>مقدار تولید</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/09</t>
@@ -577,16 +592,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I82"/>
+  <dimension ref="B1:N84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -595,8 +610,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -607,8 +627,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -619,8 +644,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -629,8 +659,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -641,8 +676,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -653,8 +693,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -663,8 +708,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -685,8 +735,23 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -695,216 +760,399 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D11" s="11"/>
-      <c r="E11" s="11">
+      <c r="E11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="11">
+        <v>814845</v>
+      </c>
+      <c r="J11" s="11">
         <v>405389</v>
       </c>
-      <c r="F11" s="11">
+      <c r="K11" s="11">
         <v>332983</v>
       </c>
-      <c r="G11" s="11">
+      <c r="L11" s="11">
         <v>215496</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>308284</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>378848</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
+        <v>486671</v>
+      </c>
+      <c r="F12" s="9">
+        <v>396579</v>
+      </c>
+      <c r="G12" s="9">
+        <v>488929</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="11">
+        <v>1524935</v>
+      </c>
+      <c r="J13" s="11">
         <v>792191</v>
       </c>
-      <c r="F12" s="9">
+      <c r="K13" s="11">
         <v>767213</v>
       </c>
-      <c r="G12" s="9">
+      <c r="L13" s="11">
         <v>474327</v>
       </c>
-      <c r="H12" s="9">
+      <c r="M13" s="11">
         <v>638977</v>
       </c>
-      <c r="I12" s="9">
+      <c r="N13" s="11">
         <v>687708</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="10" t="s">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>16</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11">
-        <v>0</v>
-      </c>
-      <c r="F13" s="11">
-        <v>0</v>
-      </c>
-      <c r="G13" s="11">
-        <v>0</v>
-      </c>
-      <c r="H13" s="11">
-        <v>0</v>
-      </c>
-      <c r="I13" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>14</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
+        <v>848678</v>
+      </c>
+      <c r="F14" s="9">
+        <v>875200</v>
+      </c>
+      <c r="G14" s="9">
+        <v>925395</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="11">
+        <v>0</v>
+      </c>
+      <c r="J15" s="11">
+        <v>0</v>
+      </c>
+      <c r="K15" s="11">
+        <v>0</v>
+      </c>
+      <c r="L15" s="11">
+        <v>0</v>
+      </c>
+      <c r="M15" s="11">
+        <v>0</v>
+      </c>
+      <c r="N15" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9">
+        <v>7108171</v>
+      </c>
+      <c r="F16" s="9">
+        <v>7969690</v>
+      </c>
+      <c r="G16" s="9">
+        <v>8334465</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="9">
+        <v>14949886</v>
+      </c>
+      <c r="J16" s="9">
         <v>7993924</v>
       </c>
-      <c r="F14" s="9">
+      <c r="K16" s="9">
         <v>7426956</v>
       </c>
-      <c r="G14" s="9">
+      <c r="L16" s="9">
         <v>6720096</v>
       </c>
-      <c r="H14" s="9">
+      <c r="M16" s="9">
         <v>6938588</v>
       </c>
-      <c r="I14" s="9">
+      <c r="N16" s="9">
         <v>7152534</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11">
+        <v>13220555</v>
+      </c>
+      <c r="F17" s="11">
+        <v>13848990</v>
+      </c>
+      <c r="G17" s="11">
+        <v>14401652</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="11">
+        <v>25610701</v>
+      </c>
+      <c r="J17" s="11">
         <v>15032849</v>
       </c>
-      <c r="F15" s="11">
+      <c r="K17" s="11">
         <v>14047821</v>
       </c>
-      <c r="G15" s="11">
+      <c r="L17" s="11">
         <v>14254284</v>
       </c>
-      <c r="H15" s="11">
+      <c r="M17" s="11">
         <v>14892845</v>
       </c>
-      <c r="I15" s="11">
+      <c r="N17" s="11">
         <v>13983329</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="8" t="s">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13">
+      <c r="D18" s="9"/>
+      <c r="E18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="9">
+        <v>21069069</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13">
+        <v>21664075</v>
+      </c>
+      <c r="F19" s="13">
+        <v>23090459</v>
+      </c>
+      <c r="G19" s="13">
+        <v>24150441</v>
+      </c>
+      <c r="H19" s="13">
+        <v>21069069</v>
+      </c>
+      <c r="I19" s="13">
+        <v>42900367</v>
+      </c>
+      <c r="J19" s="13">
         <v>24224353</v>
       </c>
-      <c r="F17" s="13">
+      <c r="K19" s="13">
         <v>22574973</v>
       </c>
-      <c r="G17" s="13">
+      <c r="L19" s="13">
         <v>21664203</v>
       </c>
-      <c r="H17" s="13">
+      <c r="M19" s="13">
         <v>22778694</v>
       </c>
-      <c r="I17" s="13">
+      <c r="N19" s="13">
         <v>22202419</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -913,30 +1161,28 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B21" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -945,260 +1191,447 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="8" t="s">
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B23" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="K23" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9" t="s">
+      <c r="L23" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="10" t="s">
+      <c r="M23" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="N23" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="11">
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M25" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N25" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11">
+        <v>439021</v>
+      </c>
+      <c r="F26" s="11">
+        <v>358948</v>
+      </c>
+      <c r="G26" s="11">
+        <v>389127</v>
+      </c>
+      <c r="H26" s="11">
+        <v>348201</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26" s="11">
         <v>284127</v>
       </c>
-      <c r="H24" s="11">
+      <c r="M26" s="11">
         <v>341622</v>
       </c>
-      <c r="I24" s="11">
+      <c r="N26" s="11">
         <v>366270</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9">
-        <v>452478</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I26" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>14</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C27" s="9"/>
       <c r="D27" s="9"/>
       <c r="E27" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="9">
-        <v>629726</v>
-      </c>
-      <c r="H27" s="9">
-        <v>737600</v>
+        <v>17</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I27" s="9">
-        <v>683501</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+        <v>423499</v>
+      </c>
+      <c r="J27" s="9">
+        <v>452478</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L27" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M27" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N27" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="11"/>
+        <v>27</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>28</v>
+      </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11">
-        <v>642542</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="F28" s="11">
+        <v>0</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I28" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K28" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L28" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M28" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N28" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9">
-        <v>0</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>12</v>
+        <v>885464</v>
+      </c>
+      <c r="F29" s="9">
+        <v>794658</v>
       </c>
       <c r="G29" s="9">
-        <v>0</v>
+        <v>732535</v>
       </c>
       <c r="H29" s="9">
-        <v>0</v>
-      </c>
-      <c r="I29" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+        <v>851542</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L29" s="9">
+        <v>629726</v>
+      </c>
+      <c r="M29" s="9">
+        <v>737600</v>
+      </c>
+      <c r="N29" s="9">
+        <v>683501</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>14</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C30" s="11"/>
       <c r="D30" s="11"/>
-      <c r="E30" s="11">
-        <v>6703593</v>
+      <c r="E30" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="11">
-        <v>7900221</v>
-      </c>
-      <c r="H30" s="11">
-        <v>8048604</v>
+        <v>17</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="I30" s="11">
-        <v>7019965</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+        <v>774368</v>
+      </c>
+      <c r="J30" s="11">
+        <v>642542</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N30" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>14</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9">
+        <v>0</v>
+      </c>
+      <c r="F31" s="9">
+        <v>0</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" s="9">
+        <v>0</v>
+      </c>
+      <c r="J31" s="9">
+        <v>0</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L31" s="9">
+        <v>0</v>
+      </c>
+      <c r="M31" s="9">
+        <v>0</v>
+      </c>
+      <c r="N31" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11">
+        <v>6826923</v>
+      </c>
+      <c r="F32" s="11">
+        <v>6781190</v>
+      </c>
+      <c r="G32" s="11">
+        <v>6714435</v>
+      </c>
+      <c r="H32" s="11">
+        <v>7849877</v>
+      </c>
+      <c r="I32" s="11">
+        <v>8686935</v>
+      </c>
+      <c r="J32" s="11">
+        <v>6703593</v>
+      </c>
+      <c r="K32" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L32" s="11">
+        <v>7900221</v>
+      </c>
+      <c r="M32" s="11">
+        <v>8048604</v>
+      </c>
+      <c r="N32" s="11">
+        <v>7019965</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9">
+        <v>13554492</v>
+      </c>
+      <c r="F33" s="9">
+        <v>13161211</v>
+      </c>
+      <c r="G33" s="9">
+        <v>13741898</v>
+      </c>
+      <c r="H33" s="9">
+        <v>12551615</v>
+      </c>
+      <c r="I33" s="9">
+        <v>14246224</v>
+      </c>
+      <c r="J33" s="9">
         <v>14893295</v>
       </c>
-      <c r="F31" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" s="9">
+      <c r="K33" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L33" s="9">
         <v>13113469</v>
       </c>
-      <c r="H31" s="9">
+      <c r="M33" s="9">
         <v>15468322</v>
       </c>
-      <c r="I31" s="9">
+      <c r="N33" s="9">
         <v>14236283</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13">
+        <v>21705900</v>
+      </c>
+      <c r="F34" s="13">
+        <v>21096007</v>
+      </c>
+      <c r="G34" s="13">
+        <v>21577995</v>
+      </c>
+      <c r="H34" s="13">
+        <v>21601235</v>
+      </c>
+      <c r="I34" s="13">
+        <v>24131026</v>
+      </c>
+      <c r="J34" s="13">
         <v>22691908</v>
       </c>
-      <c r="F32" s="13">
-        <v>0</v>
-      </c>
-      <c r="G32" s="13">
+      <c r="K34" s="13">
+        <v>0</v>
+      </c>
+      <c r="L34" s="13">
         <v>21927543</v>
       </c>
-      <c r="H32" s="13">
+      <c r="M34" s="13">
         <v>24596148</v>
       </c>
-      <c r="I32" s="13">
+      <c r="N34" s="13">
         <v>22306019</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1207,30 +1640,28 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B36" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1239,242 +1670,414 @@
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B38" s="8" t="s">
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+    </row>
+    <row r="38" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B38" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J38" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9" t="s">
+      <c r="K38" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L38" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F38" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I38" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B39" s="10" t="s">
+      <c r="M38" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11">
-        <v>132163</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" s="11">
-        <v>117806</v>
-      </c>
-      <c r="H39" s="11">
-        <v>160400</v>
-      </c>
-      <c r="I39" s="11">
-        <v>212038</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N38" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K40" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L40" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M40" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N40" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11">
-        <v>370104</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>12</v>
+        <v>137065</v>
+      </c>
+      <c r="F41" s="11">
+        <v>107539</v>
       </c>
       <c r="G41" s="11">
-        <v>461275</v>
+        <v>114548</v>
       </c>
       <c r="H41" s="11">
-        <v>607717</v>
+        <v>102253</v>
       </c>
       <c r="I41" s="11">
-        <v>748711</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+        <v>122971</v>
+      </c>
+      <c r="J41" s="11">
+        <v>132163</v>
+      </c>
+      <c r="K41" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L41" s="11">
+        <v>117806</v>
+      </c>
+      <c r="M41" s="11">
+        <v>160400</v>
+      </c>
+      <c r="N41" s="11">
+        <v>212038</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9">
         <v>0</v>
       </c>
-      <c r="F42" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42" s="9">
-        <v>0</v>
-      </c>
-      <c r="H42" s="9">
-        <v>0</v>
-      </c>
-      <c r="I42" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="F42" s="9">
+        <v>0</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J42" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K42" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L42" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M42" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N42" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11">
-        <v>3769844</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>12</v>
+        <v>485958</v>
+      </c>
+      <c r="F43" s="11">
+        <v>459723</v>
       </c>
       <c r="G43" s="11">
-        <v>5044081</v>
+        <v>421650</v>
       </c>
       <c r="H43" s="11">
-        <v>5911040</v>
+        <v>493131</v>
       </c>
       <c r="I43" s="11">
-        <v>5700880</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+        <v>439876</v>
+      </c>
+      <c r="J43" s="11">
+        <v>370104</v>
+      </c>
+      <c r="K43" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L43" s="11">
+        <v>461275</v>
+      </c>
+      <c r="M43" s="11">
+        <v>607717</v>
+      </c>
+      <c r="N43" s="11">
+        <v>748711</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D44" s="9"/>
-      <c r="E44" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>12</v>
+      <c r="E44" s="9">
+        <v>0</v>
+      </c>
+      <c r="F44" s="9">
+        <v>0</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I44" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="I44" s="9">
+        <v>0</v>
+      </c>
+      <c r="J44" s="9">
+        <v>0</v>
+      </c>
+      <c r="K44" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L44" s="9">
+        <v>0</v>
+      </c>
+      <c r="M44" s="9">
+        <v>0</v>
+      </c>
+      <c r="N44" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11">
+        <v>2553347</v>
+      </c>
+      <c r="F45" s="11">
+        <v>2783960</v>
+      </c>
+      <c r="G45" s="11">
+        <v>3737832</v>
+      </c>
+      <c r="H45" s="11">
+        <v>4307167</v>
+      </c>
+      <c r="I45" s="11">
+        <v>4767502</v>
+      </c>
+      <c r="J45" s="11">
+        <v>3769844</v>
+      </c>
+      <c r="K45" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L45" s="11">
+        <v>5044081</v>
+      </c>
+      <c r="M45" s="11">
+        <v>5911040</v>
+      </c>
+      <c r="N45" s="11">
+        <v>5700880</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B46" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J46" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K46" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L46" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M46" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N46" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B47" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11">
+        <v>4780146</v>
+      </c>
+      <c r="F47" s="11">
+        <v>5518542</v>
+      </c>
+      <c r="G47" s="11">
+        <v>7625957</v>
+      </c>
+      <c r="H47" s="11">
+        <v>6635100</v>
+      </c>
+      <c r="I47" s="11">
+        <v>7725946</v>
+      </c>
+      <c r="J47" s="11">
         <v>8276645</v>
       </c>
-      <c r="F45" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G45" s="11">
+      <c r="K47" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L47" s="11">
         <v>8580641</v>
       </c>
-      <c r="H45" s="11">
+      <c r="M47" s="11">
         <v>11942917</v>
       </c>
-      <c r="I45" s="11">
+      <c r="N47" s="11">
         <v>11453935</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B46" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B48" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15">
+        <v>7956516</v>
+      </c>
+      <c r="F48" s="15">
+        <v>8869764</v>
+      </c>
+      <c r="G48" s="15">
+        <v>11899987</v>
+      </c>
+      <c r="H48" s="15">
+        <v>11537651</v>
+      </c>
+      <c r="I48" s="15">
+        <v>13056295</v>
+      </c>
+      <c r="J48" s="15">
         <v>12548756</v>
       </c>
-      <c r="F46" s="15">
-        <v>0</v>
-      </c>
-      <c r="G46" s="15">
+      <c r="K48" s="15">
+        <v>0</v>
+      </c>
+      <c r="L48" s="15">
         <v>14203803</v>
       </c>
-      <c r="H46" s="15">
+      <c r="M48" s="15">
         <v>18622074</v>
       </c>
-      <c r="I46" s="15">
+      <c r="N48" s="15">
         <v>18115564</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1483,30 +2086,28 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-    </row>
-    <row r="50" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B50" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F50" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G50" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H50" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I50" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1515,196 +2116,338 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B52" s="8" t="s">
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+    </row>
+    <row r="52" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B52" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J52" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C52" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9" t="s">
+      <c r="K52" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L52" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F52" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G52" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H52" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I52" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B53" s="10" t="s">
+      <c r="M52" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C53" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11">
-        <v>292083</v>
-      </c>
-      <c r="F53" s="11">
-        <v>318824</v>
-      </c>
-      <c r="G53" s="11">
-        <v>414624</v>
-      </c>
-      <c r="H53" s="11">
-        <v>469525</v>
-      </c>
-      <c r="I53" s="11">
-        <v>578912</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N52" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J54" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K54" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L54" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M54" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N54" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11">
-        <v>576001</v>
+        <v>312206</v>
       </c>
       <c r="F55" s="11">
-        <v>679709</v>
+        <v>299595</v>
       </c>
       <c r="G55" s="11">
-        <v>732501</v>
+        <v>294372</v>
       </c>
       <c r="H55" s="11">
-        <v>823911</v>
+        <v>293661</v>
       </c>
       <c r="I55" s="11">
-        <v>1095406</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+        <v>290368</v>
+      </c>
+      <c r="J55" s="11">
+        <v>292083</v>
+      </c>
+      <c r="K55" s="11">
+        <v>318824</v>
+      </c>
+      <c r="L55" s="11">
+        <v>414624</v>
+      </c>
+      <c r="M55" s="11">
+        <v>469525</v>
+      </c>
+      <c r="N55" s="11">
+        <v>578912</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="8" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J56" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K56" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L56" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M56" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N56" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11">
+        <v>548817</v>
+      </c>
+      <c r="F57" s="11">
+        <v>578517</v>
+      </c>
+      <c r="G57" s="11">
+        <v>575604</v>
+      </c>
+      <c r="H57" s="11">
+        <v>579104</v>
+      </c>
+      <c r="I57" s="11">
+        <v>568045</v>
+      </c>
+      <c r="J57" s="11">
+        <v>576001</v>
+      </c>
+      <c r="K57" s="11">
+        <v>679709</v>
+      </c>
+      <c r="L57" s="11">
+        <v>732501</v>
+      </c>
+      <c r="M57" s="11">
+        <v>823911</v>
+      </c>
+      <c r="N57" s="11">
+        <v>1095406</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B58" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I58" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J58" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K58" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L58" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M58" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N58" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B59" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11">
+        <v>374011</v>
+      </c>
+      <c r="F59" s="11">
+        <v>410542</v>
+      </c>
+      <c r="G59" s="11">
+        <v>556686</v>
+      </c>
+      <c r="H59" s="11">
+        <v>548692</v>
+      </c>
+      <c r="I59" s="11">
+        <v>548813</v>
+      </c>
+      <c r="J59" s="11">
         <v>562362</v>
       </c>
-      <c r="F57" s="11">
+      <c r="K59" s="11">
         <v>624644</v>
       </c>
-      <c r="G57" s="11">
+      <c r="L59" s="11">
         <v>638473</v>
       </c>
-      <c r="H57" s="11">
+      <c r="M59" s="11">
         <v>734418</v>
       </c>
-      <c r="I57" s="11">
+      <c r="N59" s="11">
         <v>812095</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B58" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B60" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9">
+        <v>352661</v>
+      </c>
+      <c r="F60" s="9">
+        <v>419304</v>
+      </c>
+      <c r="G60" s="9">
+        <v>554942</v>
+      </c>
+      <c r="H60" s="9">
+        <v>528625</v>
+      </c>
+      <c r="I60" s="9">
+        <v>542315</v>
+      </c>
+      <c r="J60" s="9">
         <v>555730</v>
       </c>
-      <c r="F58" s="9">
+      <c r="K60" s="9">
         <v>593648</v>
       </c>
-      <c r="G58" s="9">
+      <c r="L60" s="9">
         <v>654338</v>
       </c>
-      <c r="H58" s="9">
+      <c r="M60" s="9">
         <v>772089</v>
       </c>
-      <c r="I58" s="9">
+      <c r="N60" s="9">
         <v>804559</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1713,30 +2456,28 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-    </row>
-    <row r="62" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B62" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F62" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G62" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H62" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I62" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1745,85 +2486,109 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B64" s="8" t="s">
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+    </row>
+    <row r="64" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B64" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I64" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J64" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K64" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L64" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M64" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C64" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9">
-        <v>-103306</v>
-      </c>
-      <c r="F64" s="9">
-        <v>-116596</v>
-      </c>
-      <c r="G64" s="9">
-        <v>-131656</v>
-      </c>
-      <c r="H64" s="9">
-        <v>-221255</v>
-      </c>
-      <c r="I64" s="9">
-        <v>-64891</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B65" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C65" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D65" s="11"/>
-      <c r="E65" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F65" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G65" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H65" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I65" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N64" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D66" s="9"/>
       <c r="E66" s="9">
-        <v>-421513</v>
+        <v>-113856</v>
       </c>
       <c r="F66" s="9">
-        <v>-271505</v>
+        <v>-138858</v>
       </c>
       <c r="G66" s="9">
-        <v>-472950</v>
+        <v>-44462</v>
       </c>
       <c r="H66" s="9">
-        <v>-337919</v>
+        <v>-135160</v>
       </c>
       <c r="I66" s="9">
-        <v>-770528</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+        <v>-63477</v>
+      </c>
+      <c r="J66" s="9">
+        <v>-103306</v>
+      </c>
+      <c r="K66" s="9">
+        <v>-116596</v>
+      </c>
+      <c r="L66" s="9">
+        <v>-131656</v>
+      </c>
+      <c r="M66" s="9">
+        <v>-221255</v>
+      </c>
+      <c r="N66" s="9">
+        <v>-64891</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D67" s="11"/>
       <c r="E67" s="11">
@@ -1832,107 +2597,225 @@
       <c r="F67" s="11">
         <v>0</v>
       </c>
-      <c r="G67" s="11">
-        <v>0</v>
-      </c>
-      <c r="H67" s="11">
-        <v>0</v>
-      </c>
-      <c r="I67" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G67" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H67" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I67" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J67" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K67" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L67" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M67" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N67" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D68" s="9"/>
       <c r="E68" s="9">
-        <v>-3722076</v>
+        <v>-244901</v>
       </c>
       <c r="F68" s="9">
-        <v>-3416116</v>
+        <v>-301339</v>
       </c>
       <c r="G68" s="9">
-        <v>-5041057</v>
+        <v>-297986</v>
       </c>
       <c r="H68" s="9">
-        <v>-6568253</v>
+        <v>-370160</v>
       </c>
       <c r="I68" s="9">
-        <v>-4507472</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+        <v>-440341</v>
+      </c>
+      <c r="J68" s="9">
+        <v>-421513</v>
+      </c>
+      <c r="K68" s="9">
+        <v>-271505</v>
+      </c>
+      <c r="L68" s="9">
+        <v>-472950</v>
+      </c>
+      <c r="M68" s="9">
+        <v>-337919</v>
+      </c>
+      <c r="N68" s="9">
+        <v>-770528</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11">
+        <v>0</v>
+      </c>
+      <c r="F69" s="11">
+        <v>0</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H69" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I69" s="11">
+        <v>0</v>
+      </c>
+      <c r="J69" s="11">
+        <v>0</v>
+      </c>
+      <c r="K69" s="11">
+        <v>0</v>
+      </c>
+      <c r="L69" s="11">
+        <v>0</v>
+      </c>
+      <c r="M69" s="11">
+        <v>0</v>
+      </c>
+      <c r="N69" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B70" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9">
+        <v>-1750770</v>
+      </c>
+      <c r="F70" s="9">
+        <v>-2575717</v>
+      </c>
+      <c r="G70" s="9">
+        <v>-2945314</v>
+      </c>
+      <c r="H70" s="9">
+        <v>-3315860</v>
+      </c>
+      <c r="I70" s="9">
+        <v>-5571588</v>
+      </c>
+      <c r="J70" s="9">
+        <v>-3722076</v>
+      </c>
+      <c r="K70" s="9">
+        <v>-3416116</v>
+      </c>
+      <c r="L70" s="9">
+        <v>-5041057</v>
+      </c>
+      <c r="M70" s="9">
+        <v>-6568253</v>
+      </c>
+      <c r="N70" s="9">
+        <v>-4507472</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B71" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11">
+        <v>-3152949</v>
+      </c>
+      <c r="F71" s="11">
+        <v>-4488140</v>
+      </c>
+      <c r="G71" s="11">
+        <v>-6311755</v>
+      </c>
+      <c r="H71" s="11">
+        <v>-6227704</v>
+      </c>
+      <c r="I71" s="11">
+        <v>-6985026</v>
+      </c>
+      <c r="J71" s="11">
         <v>-7771513</v>
       </c>
-      <c r="F69" s="11">
+      <c r="K71" s="11">
         <v>-7901292</v>
       </c>
-      <c r="G69" s="11">
+      <c r="L71" s="11">
         <v>-9086290</v>
       </c>
-      <c r="H69" s="11">
+      <c r="M71" s="11">
         <v>-9779945</v>
       </c>
-      <c r="I69" s="11">
+      <c r="N71" s="11">
         <v>-8813607</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B70" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B72" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C72" s="15"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15">
+        <v>-5262476</v>
+      </c>
+      <c r="F72" s="15">
+        <v>-7504054</v>
+      </c>
+      <c r="G72" s="15">
+        <v>-9599517</v>
+      </c>
+      <c r="H72" s="15">
+        <v>-10048884</v>
+      </c>
+      <c r="I72" s="15">
+        <v>-13060432</v>
+      </c>
+      <c r="J72" s="15">
         <v>-12018408</v>
       </c>
-      <c r="F70" s="15">
+      <c r="K72" s="15">
         <v>-11705509</v>
       </c>
-      <c r="G70" s="15">
+      <c r="L72" s="15">
         <v>-14731953</v>
       </c>
-      <c r="H70" s="15">
+      <c r="M72" s="15">
         <v>-16907372</v>
       </c>
-      <c r="I70" s="15">
+      <c r="N72" s="15">
         <v>-14156498</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -1941,30 +2824,28 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
-    </row>
-    <row r="74" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B74" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G74" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H74" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I74" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -1973,85 +2854,109 @@
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B76" s="8" t="s">
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+    </row>
+    <row r="76" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B76" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I76" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J76" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K76" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L76" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M76" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C76" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9">
-        <v>28855</v>
-      </c>
-      <c r="F76" s="9">
-        <v>-7463</v>
-      </c>
-      <c r="G76" s="9">
-        <v>-13850</v>
-      </c>
-      <c r="H76" s="9">
-        <v>-60855</v>
-      </c>
-      <c r="I76" s="9">
-        <v>147147</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B77" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C77" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D77" s="11"/>
-      <c r="E77" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F77" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G77" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H77" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="I77" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N76" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D78" s="9"/>
       <c r="E78" s="9">
-        <v>-51408</v>
+        <v>23209</v>
       </c>
       <c r="F78" s="9">
-        <v>172250</v>
+        <v>-31319</v>
       </c>
       <c r="G78" s="9">
-        <v>-11675</v>
+        <v>70086</v>
       </c>
       <c r="H78" s="9">
-        <v>269798</v>
+        <v>-32907</v>
       </c>
       <c r="I78" s="9">
-        <v>-21817</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+        <v>59494</v>
+      </c>
+      <c r="J78" s="9">
+        <v>28855</v>
+      </c>
+      <c r="K78" s="9">
+        <v>-7463</v>
+      </c>
+      <c r="L78" s="9">
+        <v>-13850</v>
+      </c>
+      <c r="M78" s="9">
+        <v>-60855</v>
+      </c>
+      <c r="N78" s="9">
+        <v>147147</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D79" s="11"/>
       <c r="E79" s="11">
@@ -2060,83 +2965,221 @@
       <c r="F79" s="11">
         <v>0</v>
       </c>
-      <c r="G79" s="11">
-        <v>0</v>
-      </c>
-      <c r="H79" s="11">
-        <v>0</v>
-      </c>
-      <c r="I79" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G79" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H79" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I79" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J79" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K79" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L79" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M79" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N79" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D80" s="9"/>
       <c r="E80" s="9">
-        <v>47769</v>
+        <v>241057</v>
       </c>
       <c r="F80" s="9">
-        <v>507596</v>
+        <v>158384</v>
       </c>
       <c r="G80" s="9">
-        <v>3024</v>
+        <v>123664</v>
       </c>
       <c r="H80" s="9">
-        <v>-657213</v>
+        <v>122971</v>
       </c>
       <c r="I80" s="9">
-        <v>1193408</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+        <v>-465</v>
+      </c>
+      <c r="J80" s="9">
+        <v>-51408</v>
+      </c>
+      <c r="K80" s="9">
+        <v>172250</v>
+      </c>
+      <c r="L80" s="9">
+        <v>-11675</v>
+      </c>
+      <c r="M80" s="9">
+        <v>269798</v>
+      </c>
+      <c r="N80" s="9">
+        <v>-21817</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D81" s="11"/>
       <c r="E81" s="11">
+        <v>0</v>
+      </c>
+      <c r="F81" s="11">
+        <v>0</v>
+      </c>
+      <c r="G81" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H81" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I81" s="11">
+        <v>0</v>
+      </c>
+      <c r="J81" s="11">
+        <v>0</v>
+      </c>
+      <c r="K81" s="11">
+        <v>0</v>
+      </c>
+      <c r="L81" s="11">
+        <v>0</v>
+      </c>
+      <c r="M81" s="11">
+        <v>0</v>
+      </c>
+      <c r="N81" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B82" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9">
+        <v>802577</v>
+      </c>
+      <c r="F82" s="9">
+        <v>208243</v>
+      </c>
+      <c r="G82" s="9">
+        <v>792518</v>
+      </c>
+      <c r="H82" s="9">
+        <v>991307</v>
+      </c>
+      <c r="I82" s="9">
+        <v>-804086</v>
+      </c>
+      <c r="J82" s="9">
+        <v>47769</v>
+      </c>
+      <c r="K82" s="9">
+        <v>507596</v>
+      </c>
+      <c r="L82" s="9">
+        <v>3024</v>
+      </c>
+      <c r="M82" s="9">
+        <v>-657213</v>
+      </c>
+      <c r="N82" s="9">
+        <v>1193408</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B83" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11">
+        <v>1627197</v>
+      </c>
+      <c r="F83" s="11">
+        <v>1030402</v>
+      </c>
+      <c r="G83" s="11">
+        <v>1314202</v>
+      </c>
+      <c r="H83" s="11">
+        <v>407396</v>
+      </c>
+      <c r="I83" s="11">
+        <v>740920</v>
+      </c>
+      <c r="J83" s="11">
         <v>505132</v>
       </c>
-      <c r="F81" s="11">
+      <c r="K83" s="11">
         <v>244822</v>
       </c>
-      <c r="G81" s="11">
+      <c r="L83" s="11">
         <v>-505649</v>
       </c>
-      <c r="H81" s="11">
+      <c r="M83" s="11">
         <v>2162972</v>
       </c>
-      <c r="I81" s="11">
+      <c r="N83" s="11">
         <v>2640328</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B82" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C82" s="15"/>
-      <c r="D82" s="15"/>
-      <c r="E82" s="15">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B84" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C84" s="15"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="15">
+        <v>2694040</v>
+      </c>
+      <c r="F84" s="15">
+        <v>1365710</v>
+      </c>
+      <c r="G84" s="15">
+        <v>2300470</v>
+      </c>
+      <c r="H84" s="15">
+        <v>1488767</v>
+      </c>
+      <c r="I84" s="15">
+        <v>-4137</v>
+      </c>
+      <c r="J84" s="15">
         <v>530348</v>
       </c>
-      <c r="F82" s="15">
+      <c r="K84" s="15">
         <v>917205</v>
       </c>
-      <c r="G82" s="15">
+      <c r="L84" s="15">
         <v>-528150</v>
       </c>
-      <c r="H82" s="15">
+      <c r="M84" s="15">
         <v>1714702</v>
       </c>
-      <c r="I82" s="15">
+      <c r="N84" s="15">
         <v>3959066</v>
       </c>
     </row>

--- a/database/industries/lastic/pekerman/product/quarterly.xlsx
+++ b/database/industries/lastic/pekerman/product/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\lastic\pekerman\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\lastic\pekerman\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139E276E-7D19-43AB-8202-87B8F8706A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176FB04F-6992-407E-B6E8-16D7D5F2F2D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -596,12 +596,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -616,7 +616,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -633,7 +633,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -650,7 +650,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -665,7 +665,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -682,7 +682,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -699,7 +699,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -714,7 +714,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -751,7 +751,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -766,7 +766,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -805,7 +805,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>18</v>
       </c>
@@ -844,7 +844,7 @@
         <v>378848</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>18</v>
       </c>
@@ -883,7 +883,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>20</v>
       </c>
@@ -922,7 +922,7 @@
         <v>687708</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>20</v>
       </c>
@@ -961,7 +961,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>21</v>
       </c>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>22</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>7152534</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>23</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>13983329</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>24</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>25</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>22202419</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1167,7 +1167,7 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1182,7 +1182,7 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1197,7 +1197,7 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B23" s="7" t="s">
         <v>26</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1249,7 +1249,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
         <v>15</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>18</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>366270</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
         <v>18</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="10" t="s">
         <v>27</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>20</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>683501</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>20</v>
       </c>
@@ -1479,7 +1479,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>21</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>22</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>7019965</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>23</v>
       </c>
@@ -1594,7 +1594,7 @@
         <v>14236283</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
         <v>25</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>22306019</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1646,7 +1646,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1661,7 +1661,7 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1676,7 +1676,7 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
         <v>29</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1728,7 +1728,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
         <v>15</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>18</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>212038</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>27</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>20</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>748711</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>21</v>
       </c>
@@ -1923,7 +1923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>22</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>5700880</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
         <v>31</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>23</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>11453935</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="14" t="s">
         <v>25</v>
       </c>
@@ -2077,7 +2077,7 @@
         <v>18115564</v>
       </c>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2092,7 +2092,7 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -2107,7 +2107,7 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -2122,7 +2122,7 @@
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
     </row>
-    <row r="52" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B52" s="7" t="s">
         <v>32</v>
       </c>
@@ -2159,7 +2159,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2174,7 +2174,7 @@
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>15</v>
       </c>
@@ -2213,7 +2213,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>18</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>578912</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="8" t="s">
         <v>27</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>20</v>
       </c>
@@ -2330,7 +2330,7 @@
         <v>1095406</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
         <v>21</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>22</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>812095</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
         <v>23</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>804559</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -2462,7 +2462,7 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -2477,7 +2477,7 @@
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -2492,7 +2492,7 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B64" s="7" t="s">
         <v>37</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -2544,7 +2544,7 @@
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>18</v>
       </c>
@@ -2583,7 +2583,7 @@
         <v>-64891</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>27</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>20</v>
       </c>
@@ -2661,7 +2661,7 @@
         <v>-770528</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>21</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
         <v>22</v>
       </c>
@@ -2739,7 +2739,7 @@
         <v>-4507472</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>23</v>
       </c>
@@ -2778,7 +2778,7 @@
         <v>-8813607</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="14" t="s">
         <v>25</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>-14156498</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2830,7 +2830,7 @@
       <c r="M73" s="1"/>
       <c r="N73" s="1"/>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2845,7 +2845,7 @@
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -2860,7 +2860,7 @@
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
     </row>
-    <row r="76" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B76" s="7" t="s">
         <v>38</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -2912,7 +2912,7 @@
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="8" t="s">
         <v>18</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>147147</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="10" t="s">
         <v>27</v>
       </c>
@@ -2990,7 +2990,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="8" t="s">
         <v>20</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>-21817</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="10" t="s">
         <v>21</v>
       </c>
@@ -3068,7 +3068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="8" t="s">
         <v>22</v>
       </c>
@@ -3107,7 +3107,7 @@
         <v>1193408</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="10" t="s">
         <v>23</v>
       </c>
@@ -3146,7 +3146,7 @@
         <v>2640328</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="14" t="s">
         <v>25</v>
       </c>
